--- a/biology/Zoologie/Carpophage_de_Baker/Carpophage_de_Baker.xlsx
+++ b/biology/Zoologie/Carpophage_de_Baker/Carpophage_de_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula bakeri
 Le Carpophage de Baker (Ducula bakeri) est une espèce d'oiseaux appartenant à la famille des  Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 38 à 40 cm de longueur.
 La tête est gris ardoise pâle, plus claire encore au niveau du front et de la gorge. Le manteau, les ailes et la queue sont gris ardoise foncé. Le collier, le dos et la poitrine sont châtain foncé avec une légère teinte pourpre métallique. L'abdomen est brun roux. Les sous-caudales sont cannelle. Les iris sont jaunes, les cercles oculaires et les pattes rouges. Le bec est noir.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur les îles Banks.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les forêts humides au-dessus de 600 m d'altitude.
 </t>
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit le plus souvent isolément ou en couple.
 </t>
@@ -638,7 +658,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme des fruits et des baies dans la canopée.
 </t>
@@ -669,7 +691,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est vulnérable et décline en raison de la chasse et de la diminution de son habitat.
 </t>
@@ -700,7 +724,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau constitue une super-espèce avec les Carpophage de Peale, Carpophage de Brenchley et Carpophage géant.
 </t>
